--- a/T-Mobile-Formatted-Inventory-Report.xlsx
+++ b/T-Mobile-Formatted-Inventory-Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dverhaert\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27A3CAF4-FD23-42BE-BE59-ED72A1796F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D89F37AF-BDC0-42ED-89BC-DED35DDDA3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{829C1CE8-FEA3-4725-999F-673CACE46414}"/>
   </bookViews>
@@ -4476,9 +4476,6 @@
     <t>245F</t>
   </si>
   <si>
-    <t>Construction Team Allocation through Q1</t>
-  </si>
-  <si>
     <t>4905424132</t>
   </si>
   <si>
@@ -4563,7 +4560,10 @@
     <t>1SII</t>
   </si>
   <si>
-    <t>646</t>
+    <t>Construction Team Allocation through Q2</t>
+  </si>
+  <si>
+    <t>649</t>
   </si>
 </sst>
 </file>
@@ -5468,7 +5468,7 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="55"/>
       <c r="S1" s="39" t="s">
-        <v>1479</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5538,13 +5538,13 @@
         <v>1087</v>
       </c>
       <c r="C3" s="16">
-        <v>1086</v>
+        <v>1682</v>
       </c>
       <c r="D3" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E3" s="16">
-        <v>541</v>
+        <v>811</v>
       </c>
       <c r="F3" s="16">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="24">
-        <v>180</v>
+        <v>530</v>
       </c>
       <c r="M3" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N3" s="52" t="s">
         <v>1094</v>
@@ -5581,10 +5581,10 @@
         <v>1094</v>
       </c>
       <c r="R3" s="37">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="S3" s="41">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5595,13 +5595,13 @@
         <v>1088</v>
       </c>
       <c r="C4" s="16">
-        <v>5451</v>
+        <v>5836</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
       </c>
       <c r="E4" s="16">
-        <v>685</v>
+        <v>1094</v>
       </c>
       <c r="F4" s="16">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="7">
-        <v>4228</v>
+        <v>4020</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="24">
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -5638,10 +5638,10 @@
         <v>1088</v>
       </c>
       <c r="R4" s="62">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="S4" s="41">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="16">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F5" s="16">
         <v>0</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="41">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5709,13 +5709,13 @@
         <v>32</v>
       </c>
       <c r="C6" s="7">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="16">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F6" s="16">
         <v>0</v>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -5752,10 +5752,10 @@
         <v>32</v>
       </c>
       <c r="R6" s="38">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="S6" s="41">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5766,13 +5766,13 @@
         <v>1412</v>
       </c>
       <c r="C7" s="7">
-        <v>4401</v>
+        <v>4376</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="16">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F7" s="16">
         <v>0</v>
@@ -5809,10 +5809,10 @@
         <v>1412</v>
       </c>
       <c r="R7" s="38">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="S7" s="41">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5821,7 +5821,7 @@
         <v>1413</v>
       </c>
       <c r="C8" s="7">
-        <v>9202</v>
+        <v>9201</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5848,7 +5848,7 @@
         <v>69</v>
       </c>
       <c r="L8" s="24">
-        <v>350</v>
+        <v>557</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -5864,10 +5864,10 @@
         <v>1413</v>
       </c>
       <c r="R8" s="38">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="S8" s="41">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5878,13 +5878,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="24">
-        <v>1129</v>
+        <v>1199</v>
       </c>
       <c r="D9" s="19">
         <v>0</v>
       </c>
       <c r="E9" s="16">
-        <v>781</v>
+        <v>835</v>
       </c>
       <c r="F9" s="16">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="7">
-        <v>219</v>
+        <v>364</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -5921,10 +5921,10 @@
         <v>22</v>
       </c>
       <c r="R9" s="38">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="S9" s="41">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5935,13 +5935,13 @@
         <v>1106</v>
       </c>
       <c r="C10" s="7">
-        <v>15754</v>
+        <v>15728</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
       </c>
       <c r="E10" s="16">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F10" s="16">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="7">
-        <v>13164</v>
+        <v>12956</v>
       </c>
       <c r="I10" s="19">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="24">
-        <v>2127</v>
+        <v>2334</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -5980,10 +5980,10 @@
         <v>1106</v>
       </c>
       <c r="R10" s="38">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="S10" s="41">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="7">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="24">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -6037,10 +6037,10 @@
         <v>9</v>
       </c>
       <c r="R11" s="38">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="S11" s="41">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6051,7 +6051,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="16">
-        <v>16987</v>
+        <v>16915</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="24">
-        <v>1140</v>
+        <v>1092</v>
       </c>
       <c r="M12" s="19">
         <v>0</v>
@@ -6094,10 +6094,10 @@
         <v>14</v>
       </c>
       <c r="R12" s="38">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="S12" s="41">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6108,7 +6108,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="16">
-        <v>4148</v>
+        <v>4069</v>
       </c>
       <c r="D13" s="19">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="24">
-        <v>4108</v>
+        <v>4029</v>
       </c>
       <c r="M13" s="19">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="24">
-        <v>1119</v>
+        <v>1091</v>
       </c>
       <c r="D14" s="19">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="24">
-        <v>1119</v>
+        <v>1091</v>
       </c>
       <c r="M14" s="19">
         <v>0</v>
@@ -6224,13 +6224,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="16">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="16">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="41">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6283,13 +6283,13 @@
         <v>42</v>
       </c>
       <c r="C16" s="16">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="16">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -6337,56 +6337,56 @@
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C17" s="7">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="24">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>1496</v>
-      </c>
-      <c r="C17" s="7">
-        <v>102</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="24">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>1497</v>
       </c>
       <c r="O17" s="24">
         <v>0</v>
       </c>
       <c r="P17" s="29"/>
       <c r="Q17" s="9" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="R17" s="38">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S17" s="41">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6394,16 +6394,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C18" s="16">
-        <v>1175</v>
+        <v>1184</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="16">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="7">
-        <v>1033</v>
+        <v>1062</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="24">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -6439,22 +6439,22 @@
         <v>36</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="R18" s="38">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S18" s="41">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C19" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -6487,20 +6487,20 @@
         <v>0</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="O19" s="24">
         <v>0</v>
       </c>
       <c r="P19" s="29"/>
       <c r="Q19" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="R19" s="38">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S19" s="41">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6508,16 +6508,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C20" s="16">
-        <v>1441</v>
+        <v>1449</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="16">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F20" s="16">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="7">
-        <v>1275</v>
+        <v>1289</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="24">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -6553,22 +6553,22 @@
         <v>36</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="R20" s="38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S20" s="41">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="9" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C21" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -6601,20 +6601,20 @@
         <v>0</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="O21" s="24">
         <v>0</v>
       </c>
       <c r="P21" s="29"/>
       <c r="Q21" s="9" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R21" s="38">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S21" s="41">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6622,10 +6622,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C22" s="16">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="7">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -6667,22 +6667,22 @@
         <v>36</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="R22" s="38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S22" s="41">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="10" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C23" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -6715,20 +6715,20 @@
         <v>0</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="O23" s="24">
         <v>0</v>
       </c>
       <c r="P23" s="29"/>
       <c r="Q23" s="10" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="R23" s="38">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S23" s="41">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6736,7 +6736,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C24" s="16">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="50" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="O24" s="24">
         <v>0</v>
@@ -6781,7 +6781,7 @@
         <v>36</v>
       </c>
       <c r="Q24" s="50" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="R24" s="38">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1089</v>
       </c>
       <c r="C25" s="16">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D25" s="19">
         <v>0</v>
@@ -6843,10 +6843,10 @@
         <v>27</v>
       </c>
       <c r="R25" s="38">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S25" s="41">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7034,7 +7034,7 @@
         <v>1093</v>
       </c>
       <c r="C29" s="12">
-        <v>13514</v>
+        <v>13368</v>
       </c>
       <c r="D29" s="15">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="12">
-        <v>13368</v>
+        <v>13237</v>
       </c>
       <c r="I29" s="15">
         <v>0</v>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="22">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M29" s="15">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="12">
-        <v>532</v>
+        <v>469</v>
       </c>
       <c r="D30" s="15">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="22">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="M30" s="15">
         <v>0</v>
@@ -20737,7 +20737,7 @@
         <v>18684849</v>
       </c>
       <c r="B792" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C792" s="68">
         <v>45973</v>
@@ -20754,7 +20754,7 @@
         <v>18702526</v>
       </c>
       <c r="B793" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C793" s="68">
         <v>45979</v>
@@ -20763,7 +20763,7 @@
         <v>10</v>
       </c>
       <c r="E793" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
@@ -20771,7 +20771,7 @@
         <v>18702535</v>
       </c>
       <c r="B794" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C794" s="68">
         <v>45979</v>
@@ -20780,7 +20780,7 @@
         <v>1</v>
       </c>
       <c r="E794" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
@@ -20788,7 +20788,7 @@
         <v>18721593</v>
       </c>
       <c r="B795" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C795" s="68">
         <v>45985</v>
@@ -20805,7 +20805,7 @@
         <v>18726634</v>
       </c>
       <c r="B796" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C796" s="68">
         <v>45987</v>
@@ -20814,7 +20814,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
@@ -20822,7 +20822,7 @@
         <v>18735562</v>
       </c>
       <c r="B797" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C797" s="68">
         <v>45992</v>
@@ -20831,7 +20831,7 @@
         <v>3</v>
       </c>
       <c r="E797" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
@@ -20839,7 +20839,7 @@
         <v>18736301</v>
       </c>
       <c r="B798" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C798" s="68">
         <v>45992</v>
@@ -20848,7 +20848,7 @@
         <v>4</v>
       </c>
       <c r="E798" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
@@ -20856,7 +20856,7 @@
         <v>18746816</v>
       </c>
       <c r="B799" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C799" s="68">
         <v>45995</v>
@@ -20865,7 +20865,7 @@
         <v>2</v>
       </c>
       <c r="E799" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
@@ -20899,7 +20899,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
@@ -21024,15 +21024,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B3EF407E181BA418053C57984BF3DBB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e836601d71d97b3068fb16d4ed2921f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="89775d9c-a4cc-40ab-af53-0ca264b207aa" xmlns:ns3="37f4dda4-72b4-4394-9b01-81a120ed1799" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c766740b21f1080069dbde628dfda85" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21278,6 +21269,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A78B13-713A-4744-847F-EF5CCAC7D1DE}">
   <ds:schemaRefs>
@@ -21296,13 +21296,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26C7494F-4332-4E92-876C-6754FADD57BC}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BBE4666-5413-40DC-994D-40BB27669306}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E93353B5-C499-4806-A86B-AA4728F38819}"/>
 </file>